--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/100.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/100.xlsx
@@ -479,13 +479,13 @@
         <v>-13.69096454592255</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69225078322562</v>
+        <v>-10.69303632139613</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.001586523595615</v>
+        <v>-4.049006844488346</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.816785126743445</v>
+        <v>-6.75310416572129</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.56171268606468</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05050855818661</v>
+        <v>-11.05036454285535</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.041190739691836</v>
+        <v>-4.098207718567553</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.820045110151035</v>
+        <v>-6.765358561181146</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.38475115149264</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88316592661755</v>
+        <v>-11.88516904895233</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.79539584614127</v>
+        <v>-3.845159689242672</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.653419371884388</v>
+        <v>-6.598497161463347</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.3396798961596</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73859080969025</v>
+        <v>-12.73390376527291</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.879985214801663</v>
+        <v>-3.943653083520977</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.000182104950344</v>
+        <v>-6.93741760512711</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.410363109469648</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.45564314402874</v>
+        <v>-13.44418737904223</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.634700921061925</v>
+        <v>-3.696745344228865</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.557767007322737</v>
+        <v>-6.504062381065977</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.6149219880253</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.14665488801504</v>
+        <v>-14.1344659540694</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.686899932491887</v>
+        <v>-3.756066568404726</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.729616574423233</v>
+        <v>-6.676710578639819</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.917620591354423</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.76541021261786</v>
+        <v>-14.74622998895473</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.512811581605455</v>
+        <v>-3.574463235687143</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.410517877261844</v>
+        <v>-6.374108183059004</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.293449056639012</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.67909584333624</v>
+        <v>-15.65847546636052</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.355743224413267</v>
+        <v>-3.420118077486034</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.188158205797968</v>
+        <v>-6.172447442387897</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.695691889776671</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.33085686340305</v>
+        <v>-16.31002700958186</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.343789951918771</v>
+        <v>-3.412341249598049</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.755719442935757</v>
+        <v>-5.735648942679391</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.087714697576934</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.87248543196525</v>
+        <v>-16.83712312198975</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.199630605328526</v>
+        <v>-3.26261767430007</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.524182067179831</v>
+        <v>-5.501820413926163</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.432724819863045</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.49468403221544</v>
+        <v>-17.46417896659422</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.324937035826686</v>
+        <v>-3.377083678045281</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.92822044182446</v>
+        <v>-4.904680481315037</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.702738237050688</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.38771000904958</v>
+        <v>-18.36093624973825</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.102747564299753</v>
+        <v>-3.15620343680252</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.28098935854089</v>
+        <v>-4.260120227811179</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.884437393376526</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.11267009430448</v>
+        <v>-19.09686768477451</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.985846392225981</v>
+        <v>-3.039773587631051</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.72833707098595</v>
+        <v>-3.690971638675664</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.974020825944834</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.87990522543531</v>
+        <v>-19.85214954341085</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.910892958457099</v>
+        <v>-2.967726645093032</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.130647261655471</v>
+        <v>-3.094316121269681</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.986549389358624</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.74319858251588</v>
+        <v>-20.7040133201106</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.900144177824042</v>
+        <v>-2.965396215187205</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.532682513965316</v>
+        <v>-2.478624395531829</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.9562993085214192</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.45830016373096</v>
+        <v>-21.4159858409465</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.820922653328758</v>
+        <v>-2.886148506086237</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.111935177540766</v>
+        <v>-2.058584043460732</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.06713253488482433</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.36795336517409</v>
+        <v>-22.32093890566945</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.723987243088618</v>
+        <v>-2.792996771367356</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.880594186327466</v>
+        <v>-1.837821632943547</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.019655544184126</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.21146425266081</v>
+        <v>-23.16287871681517</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.739436160441854</v>
+        <v>-2.802501783230449</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.417048111913313</v>
+        <v>-1.358093472217021</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.835058775588092</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.00968886461801</v>
+        <v>-23.96497865041352</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.518084596296792</v>
+        <v>-2.578453204699991</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.176778170161956</v>
+        <v>-1.127786772928217</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.454485079760236</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.46323241966109</v>
+        <v>-24.41263066917782</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.359078578284029</v>
+        <v>-2.416815633816041</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7864966224501022</v>
+        <v>-0.7371124561311114</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.83731598867679</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.12580768187516</v>
+        <v>-25.07548086975156</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.152770070104109</v>
+        <v>-2.202114959514575</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6283416041220513</v>
+        <v>-0.6013059987538869</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.969670803891718</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.69445876350269</v>
+        <v>-25.64591250456557</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.148174671806664</v>
+        <v>-2.196367438567057</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2600682174871387</v>
+        <v>-0.2189714788669606</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.861132502665538</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.13256649349537</v>
+        <v>-26.08453083436908</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.097284890660875</v>
+        <v>-2.137622275716232</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2990570953497989</v>
+        <v>-0.2647028926931097</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.542685207252566</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.40877480654726</v>
+        <v>-26.36022854761014</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.75001155778409</v>
+        <v>-1.788319635898981</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2775726263865265</v>
+        <v>-0.2477745451187579</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.058961776397196</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.32768108274561</v>
+        <v>-26.2758748404009</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.653521285840569</v>
+        <v>-1.684157274490208</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4369059519703327</v>
+        <v>-0.4073828090622404</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.461888875975673</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.25702192430882</v>
+        <v>-26.18879793420058</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.728225965855458</v>
+        <v>-1.756898109078838</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3892761542321332</v>
+        <v>-0.3721121452066304</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8048934703462367</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.41833218762172</v>
+        <v>-26.36131520874601</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.445118009205974</v>
+        <v>-1.474222198423131</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7230251382734142</v>
+        <v>-0.7081915591537385</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.1346214986862085</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.34087812401007</v>
+        <v>-26.27083430380684</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.359297964078459</v>
+        <v>-1.381135925218459</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7934748198647422</v>
+        <v>-0.7831711775283038</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.5117031430694682</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.15033274845159</v>
+        <v>-26.08680889506353</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.439056272990255</v>
+        <v>-1.460750218798995</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9335886448768945</v>
+        <v>-0.9263878783139452</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.108180226840914</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.81181816617592</v>
+        <v>-25.75095205026474</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.352581612720654</v>
+        <v>-1.372743759096912</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.414311820619392</v>
+        <v>-1.411352960177162</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.641081097085258</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.83232071242606</v>
+        <v>-25.76401816850078</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.186754504927352</v>
+        <v>-1.203159160388034</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.712174802571502</v>
+        <v>-1.700823776007726</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.108639024234389</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.47999375065237</v>
+        <v>-25.41500355934604</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.159155930536993</v>
+        <v>-1.17202566423041</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.215246539264826</v>
+        <v>-2.200386775539467</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.518941329051357</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.92395055666142</v>
+        <v>-24.87183009904851</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.181897260573071</v>
+        <v>-1.191048780259438</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.317301039916081</v>
+        <v>-2.307311612847844</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.886340912098461</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.51380798553867</v>
+        <v>-24.4544212998486</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.350041705969359</v>
+        <v>-1.358001826097128</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522758548411288</v>
+        <v>-2.522025379452152</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.227954133070074</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86169347329514</v>
+        <v>-23.80743897031903</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.349033598650546</v>
+        <v>-1.357504318589143</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.708420495009805</v>
+        <v>-2.719012168008762</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.559745944588068</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.09940723263848</v>
+        <v>-23.04953865111435</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.331607743568209</v>
+        <v>-1.336334064894072</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.847054889800843</v>
+        <v>-2.84528742891721</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.892113732540314</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.71284389893368</v>
+        <v>-22.66986186870429</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.406325515885939</v>
+        <v>-1.413329897906263</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.162409188349498</v>
+        <v>-3.153873006896693</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.230954433090738</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.0843740856223</v>
+        <v>-22.02437206169867</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.314338996119972</v>
+        <v>-1.327876437258317</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.392179103221791</v>
+        <v>-3.381770722462619</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.576521587820134</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.59624066647138</v>
+        <v>-21.53660522702732</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.481697903345756</v>
+        <v>-1.496714774705216</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.623520094435091</v>
+        <v>-3.612928421436135</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.923623443488449</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.12274444189752</v>
+        <v>-21.09522442132421</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.389999414242307</v>
+        <v>-1.413028774940903</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.625117355381781</v>
+        <v>-3.617078681436962</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.265334613977735</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.31068126583662</v>
+        <v>-20.2586524543436</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.114236239487031</v>
+        <v>-1.140211368325015</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.738418144174079</v>
+        <v>-3.725050902972677</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.59359530246925</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.47879634327334</v>
+        <v>-19.44639289374007</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.123008082390987</v>
+        <v>-1.14775253476185</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.876411016125871</v>
+        <v>-3.865413481738821</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.903719746318653</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.05520797713214</v>
+        <v>-19.02026462084757</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.141324214066562</v>
+        <v>-1.169799972747316</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.103942147212229</v>
+        <v>-4.089710814023273</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.195334905076033</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.5618900060559</v>
+        <v>-18.53730266131914</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.131243140878433</v>
+        <v>-1.158435853880698</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.213865121871361</v>
+        <v>-4.204491033036685</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.471213739052987</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.10101476142146</v>
+        <v>-18.08857707372182</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.095671354057463</v>
+        <v>-1.122091621192066</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.344513211928946</v>
+        <v>-4.346529426566571</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.738233459904368</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.34393925729581</v>
+        <v>-17.32252024984675</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.185510736157388</v>
+        <v>-1.216683509223537</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.655887450413717</v>
+        <v>-4.64893543760476</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.003607109360172</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.50139720021937</v>
+        <v>-16.47510785611318</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.112285486363614</v>
+        <v>-1.141442044792138</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.601305639866561</v>
+        <v>-4.603911008132064</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.276865788904456</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85953396110091</v>
+        <v>-15.85226773302375</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.052506031588292</v>
+        <v>-1.093340924151636</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.834990153288529</v>
+        <v>-4.830211462751299</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.568053390536568</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.98363271638375</v>
+        <v>-14.96288141637961</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.014211045776244</v>
+        <v>-1.048748540672717</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954954924227265</v>
+        <v>-4.954352678296545</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.882647253959</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.18637693483684</v>
+        <v>-14.17143861729443</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.015533368363258</v>
+        <v>-1.048918740609659</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.140472855494523</v>
+        <v>-5.136178580162437</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.221978459844056</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.48195867274061</v>
+        <v>-13.44704150106173</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9603885887939078</v>
+        <v>-0.9962614985802373</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.043013753140714</v>
+        <v>-5.033927694968557</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.582533407085327</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.78123244004575</v>
+        <v>-12.75055717448758</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9531354530195916</v>
+        <v>-0.9940488993999855</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.122065077699056</v>
+        <v>-5.114890495741791</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.961322574768394</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.41428137599785</v>
+        <v>-12.38782183195472</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.150973241260914</v>
+        <v>-1.190865488019653</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.293521875714301</v>
+        <v>-5.284239432999517</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.356618808371678</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.7317272596473</v>
+        <v>-11.7145632506218</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.238822593328896</v>
+        <v>-1.280757239330945</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.771260006408886</v>
+        <v>-5.765132808678958</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.761250248442831</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.30938266227606</v>
+        <v>-11.29102725369196</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.251299557937061</v>
+        <v>-1.296140695169973</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.903858849589887</v>
+        <v>-5.898530282333304</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.16801709111144</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.5341350418061</v>
+        <v>-10.51828026306477</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.239856885253392</v>
+        <v>-1.285103883874398</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.36133009548548</v>
+        <v>-6.353160498512242</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.56591701310957</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.07052350587773</v>
+        <v>-10.04079088612417</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.439697795829499</v>
+        <v>-1.489147423662698</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.209040428830522</v>
+        <v>-6.194102111288112</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.94443862931535</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.498075656426103</v>
+        <v>-9.478149171500995</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.429813107183996</v>
+        <v>-1.477495274133562</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.434751729821879</v>
+        <v>-6.417522259282167</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.29562948377353</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.211301854980935</v>
+        <v>-9.187277479266367</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.510029646695252</v>
+        <v>-1.554595845568487</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.319212157243647</v>
+        <v>-6.296693396355877</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.60921737164448</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.586393148042507</v>
+        <v>-8.548504023618554</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.589120248162119</v>
+        <v>-1.641371628803447</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.722167054106292</v>
+        <v>-6.714259303189889</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.87704206527157</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.013945298590878</v>
+        <v>-7.974118513346347</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.508668047199712</v>
+        <v>-1.554622030174171</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.591230933386189</v>
+        <v>-6.577902969093312</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.09263130778151</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.549613686006221</v>
+        <v>-7.513334914831797</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.493926114199928</v>
+        <v>-1.549070893769279</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.659481108100107</v>
+        <v>-6.641426822481367</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.25446838836229</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.138305899930555</v>
+        <v>-7.089458518028074</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.636972615048628</v>
+        <v>-1.689616764775208</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.834354997157043</v>
+        <v>-6.819403587311791</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.36904018365563</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.708132105459961</v>
+        <v>-6.660790338384279</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.522349503669316</v>
+        <v>-1.572427562038918</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005903441292179</v>
+        <v>-7.004973887790416</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.44232840839207</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.465296072351626</v>
+        <v>-6.423099580292743</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.682769490388985</v>
+        <v>-1.729364996202688</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.039367367355631</v>
+        <v>-7.033279446534228</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.48041462750883</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.333901721032063</v>
+        <v>-6.284569923924439</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.67393218597082</v>
+        <v>-1.720082553487905</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.096318884717139</v>
+        <v>-7.084967858153362</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.48503690363221</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.058950269052974</v>
+        <v>-6.008963856803264</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.609439502172478</v>
+        <v>-1.643322381926865</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.049631732783544</v>
+        <v>-7.046515764707213</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.45487960675663</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.965065365374956</v>
+        <v>-5.911203631484096</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.887821137496099</v>
+        <v>-1.927687199649155</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.082506505219118</v>
+        <v>-7.083959750834549</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.3917243529119</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.865799525228989</v>
+        <v>-5.80489413240928</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.838175125120274</v>
+        <v>-1.873969481089553</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.824116816334812</v>
+        <v>-6.821904217154561</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.29444875260939</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.604830652684863</v>
+        <v>-5.539984476709795</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.852851596605849</v>
+        <v>-1.886498814909085</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.727338513728773</v>
+        <v>-6.730925804707407</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.16380106101518</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.697314679958817</v>
+        <v>-5.623395538114432</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.934010781921708</v>
+        <v>-1.967448523379477</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.542750135963278</v>
+        <v>-6.5514172404445</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.00066338198767</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.76924379177126</v>
+        <v>-5.69498425005299</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.021833949384007</v>
+        <v>-2.054617075699689</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.376936120472816</v>
+        <v>-6.383809579464723</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.80751199005709</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.970184455786072</v>
+        <v>-5.8994074666237</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.88319955459297</v>
+        <v>-1.91566846564045</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.271176498117353</v>
+        <v>-6.290343629477641</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.59311433558375</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.124189214113295</v>
+        <v>-6.047494504066464</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.144102965622887</v>
+        <v>-2.16764292613231</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.127161166858367</v>
+        <v>-6.144665575757754</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.3631512278647</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.603511513451728</v>
+        <v>-6.525533757726407</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.123809896218211</v>
+        <v>-2.155519453700872</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.889548962583881</v>
+        <v>-5.913782815143915</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.12218492103613</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.063810696761133</v>
+        <v>-6.996791198514337</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.176637338184576</v>
+        <v>-2.205741527401733</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.946539756853914</v>
+        <v>-5.96585090354546</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.87219051726949</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.548867424744242</v>
+        <v>-7.481010019115576</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.126245064546772</v>
+        <v>-2.15960425218749</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.573959002584074</v>
+        <v>-5.595770779118389</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.61232056581476</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.943547986210916</v>
+        <v>-7.881660670678078</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.163178450863282</v>
+        <v>-2.186037611624935</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.41267492387685</v>
+        <v>-5.434578346531058</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.34556844016586</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.323329507043706</v>
+        <v>-8.256048162740075</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.428546337162227</v>
+        <v>-2.45435126606327</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.020076038562011</v>
+        <v>-5.039230077619456</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.06996002439375</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.228020725709818</v>
+        <v>-9.167403363552628</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.352624072983058</v>
+        <v>-2.381204570086546</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.012875271999061</v>
+        <v>-5.03865401629442</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.782871912405733</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.960351777464609</v>
+        <v>-9.908663365845474</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.442109962906255</v>
+        <v>-2.471541459694456</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.843133565656083</v>
+        <v>-4.868532633169031</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.481197015936035</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.71383999061163</v>
+        <v>-10.66649822353595</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.511905029355497</v>
+        <v>-2.52641130090413</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.516598440480593</v>
+        <v>-4.544131553356743</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.161667975506546</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.85466398333111</v>
+        <v>-11.80411460205921</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.591964461232652</v>
+        <v>-2.612715761236788</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.410734079702396</v>
+        <v>-4.440204853399122</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.828280595024733</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.66811494349324</v>
+        <v>-12.62002691515558</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.734932408264301</v>
+        <v>-2.755448046817286</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.045223168967087</v>
+        <v>-4.078621633516331</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.483744353433597</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.7021581142356</v>
+        <v>-13.64933067226924</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.831317941785088</v>
+        <v>-2.850629088476634</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.730719870103144</v>
+        <v>-3.753919430738682</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.132280424764744</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.69960829853535</v>
+        <v>-14.64798534843042</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.866392221098072</v>
+        <v>-2.883320568672424</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.279179437394853</v>
+        <v>-3.308440734246111</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.778644717828881</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.06067100965835</v>
+        <v>-16.02041217842004</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.769469903160774</v>
+        <v>-2.795536678118651</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.029352114569037</v>
+        <v>-3.05759221179864</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.426135893902431</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.48647515833368</v>
+        <v>-17.43889772980685</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.011297828950296</v>
+        <v>-3.027911961256447</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.762138213569408</v>
+        <v>-2.784342759188975</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.083412970852835</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.95662293673394</v>
+        <v>-18.91065586145664</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.208140602175648</v>
+        <v>-3.227962348678021</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.638258844080996</v>
+        <v>-2.654650407238837</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.756115978614686</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.58078856576427</v>
+        <v>-20.54441814846995</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.416203478936358</v>
+        <v>-3.44291177673348</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.700761497847396</v>
+        <v>-2.709232217785992</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.449452495325487</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.05805855691043</v>
+        <v>-22.01861144844831</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.43131199641571</v>
+        <v>-3.444116268594918</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.588769939339271</v>
+        <v>-2.604808010320385</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.165843757791014</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.05006552658189</v>
+        <v>-24.00985906455495</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.637607412292788</v>
+        <v>-3.670246523277211</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.560830965075028</v>
+        <v>-2.57351740652866</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.903003447189368</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.21902806146213</v>
+        <v>-26.18226487508256</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.443710407206825</v>
+        <v>-3.47280150412114</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.717139968702395</v>
+        <v>-2.733754101008545</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.662104423697273</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.39452365546038</v>
+        <v>-28.35594063898581</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.944202960240329</v>
+        <v>-3.980442454506227</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.940010239977098</v>
+        <v>-2.946883698969004</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.43541225846274</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.44103388186195</v>
+        <v>-30.3934826379408</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.925192936514143</v>
+        <v>-3.961537169202774</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.273405731841653</v>
+        <v>-3.280541036890393</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.215756258427301</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.70998233354445</v>
+        <v>-32.65636935340758</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.082732616608633</v>
+        <v>-4.110972713838236</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.357589239113951</v>
+        <v>-3.364763821071217</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.985167317906702</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.21008848420045</v>
+        <v>-35.1628514555475</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.359202775717362</v>
+        <v>-4.394709101024123</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.783115266075732</v>
+        <v>-3.78431975793717</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.738540795913768</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.60984213357463</v>
+        <v>-37.56517119627866</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.21742622824431</v>
+        <v>-4.244762956577834</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.173331352273377</v>
+        <v>-4.182626887291002</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.459002822747905</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.23157577763028</v>
+        <v>-40.18943165478276</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.336330522652867</v>
+        <v>-4.366704665245671</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.424009674783906</v>
+        <v>-4.433409948224265</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.167158583254544</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.6712216737632</v>
+        <v>-42.63147344233572</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.491448126721637</v>
+        <v>-4.521900823131492</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.933352624538417</v>
+        <v>-4.94801600372115</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.837076055365727</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.03862424281547</v>
+        <v>-44.9948304898099</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.581235139610194</v>
+        <v>-4.609383590719905</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.14112747063661</v>
+        <v>-5.145670499722689</v>
       </c>
     </row>
   </sheetData>
